--- a/Templates/preliminary_tracers.xlsx
+++ b/Templates/preliminary_tracers.xlsx
@@ -21,6 +21,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>ES_name</t>
+  </si>
+  <si>
+    <t>Compound.Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>MBTCA</t>
+  </si>
+  <si>
+    <t>MTOX</t>
+  </si>
+  <si>
+    <t>2-MT</t>
+  </si>
+  <si>
+    <t>ISOPOX</t>
+  </si>
+  <si>
+    <t>Levoglucosan</t>
+  </si>
+  <si>
+    <t>1202_1412_blob_1</t>
+  </si>
+  <si>
+    <t>BBOA</t>
+  </si>
+  <si>
+    <t>Vanillic acid</t>
+  </si>
+  <si>
+    <t>1129_1334_blob_660</t>
+  </si>
+  <si>
+    <t>1221_0832_blob_5</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>beta-nocaryophyllone aldehyde</t>
+  </si>
+  <si>
+    <t>1202_1412_blob_766</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +389,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>